--- a/Proyectos.xlsx
+++ b/Proyectos.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="388">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -2248,9 +2248,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,6 +2480,9 @@
       </c>
       <c r="D14" s="11">
         <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
